--- a/specifications/ER_Standards_P21_Specifications.xlsx
+++ b/specifications/ER_Standards_P21_Specifications.xlsx
@@ -1119,7 +1119,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-01-20</t>
+    <t xml:space="preserve">2026-01-24</t>
   </si>
   <si>
     <t xml:space="preserve">Author</t>
